--- a/daily log/工作日志.杨炜 0318.xlsx
+++ b/daily log/工作日志.杨炜 0318.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72">
   <si>
     <t>下周计划</t>
   </si>
@@ -64,10 +64,10 @@
     <t>备注：每周五17点，写下周计划，写完发邮件。</t>
   </si>
   <si>
-    <t>17日工作日志（周二）</t>
-  </si>
-  <si>
-    <t>18日工作计划（周三）</t>
+    <t>13日工作日志（周二）</t>
+  </si>
+  <si>
+    <t>16日工作计划（周三）</t>
   </si>
   <si>
     <t>完成进度</t>
@@ -183,6 +183,12 @@
     <t>通过scriptm工具优化</t>
   </si>
   <si>
+    <t>17日工作日志（周二）</t>
+  </si>
+  <si>
+    <t>18日工作计划（周三）</t>
+  </si>
+  <si>
     <t>完成footer部分</t>
   </si>
   <si>
@@ -222,7 +228,13 @@
     <t>19日工作计划（周四）</t>
   </si>
   <si>
+    <t>对border-radius进行兼容</t>
+  </si>
+  <si>
     <t>css绘图三角形</t>
+  </si>
+  <si>
+    <t>实现左侧导航收缩功能</t>
   </si>
 </sst>
 </file>
@@ -230,10 +242,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="8">
     <font>
@@ -287,7 +299,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -318,12 +330,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="13"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="19">
     <border>
@@ -602,7 +608,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -735,9 +741,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -747,7 +750,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1108,188 +1111,188 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="4.625" style="44" customWidth="1"/>
-    <col min="2" max="2" width="32.125" style="44" customWidth="1"/>
-    <col min="3" max="3" width="9.5" style="44" customWidth="1"/>
-    <col min="4" max="5" width="9" style="44"/>
-    <col min="6" max="6" width="15.625" style="44" customWidth="1"/>
-    <col min="7" max="7" width="16.875" style="44" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="44"/>
+    <col min="1" max="1" width="4.625" style="37" customWidth="1"/>
+    <col min="2" max="2" width="32.125" style="37" customWidth="1"/>
+    <col min="3" max="3" width="9.5" style="37" customWidth="1"/>
+    <col min="4" max="5" width="9" style="37"/>
+    <col min="6" max="6" width="15.625" style="37" customWidth="1"/>
+    <col min="7" max="7" width="16.875" style="37" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="37"/>
   </cols>
   <sheetData>
     <row r="1" ht="21.75" customHeight="1" spans="1:7">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
     </row>
     <row r="2" ht="33" customHeight="1" spans="1:7">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="47" t="s">
+      <c r="C2" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
     </row>
     <row r="3" ht="16.5" spans="1:7">
-      <c r="A3" s="46"/>
-      <c r="B3" s="47"/>
-      <c r="C3" s="48" t="s">
+      <c r="A3" s="45"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="48" t="s">
+      <c r="D3" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="48" t="s">
+      <c r="E3" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="48" t="s">
+      <c r="F3" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="48" t="s">
+      <c r="G3" s="47" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" ht="16.5" spans="1:7">
-      <c r="A4" s="49">
+      <c r="A4" s="48">
         <v>1</v>
       </c>
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
     </row>
     <row r="5" ht="16.5" spans="1:7">
-      <c r="A5" s="49">
+      <c r="A5" s="48">
         <v>2</v>
       </c>
-      <c r="B5" s="49" t="s">
+      <c r="B5" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="49"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="50"/>
-      <c r="G5" s="50"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
     </row>
     <row r="6" ht="16.5" spans="1:7">
-      <c r="A6" s="49">
+      <c r="A6" s="48">
         <v>3</v>
       </c>
-      <c r="B6" s="49" t="s">
+      <c r="B6" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="49"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="50"/>
-      <c r="G6" s="50"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
     </row>
     <row r="7" ht="16.5" spans="1:7">
-      <c r="A7" s="49">
+      <c r="A7" s="48">
         <v>4</v>
       </c>
-      <c r="B7" s="49" t="s">
+      <c r="B7" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="49"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="50"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49"/>
     </row>
     <row r="8" ht="16.5" spans="1:7">
-      <c r="A8" s="49"/>
-      <c r="B8" s="49" t="s">
+      <c r="A8" s="48"/>
+      <c r="B8" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="49"/>
-      <c r="D8" s="50"/>
-      <c r="E8" s="50"/>
-      <c r="F8" s="50"/>
-      <c r="G8" s="50"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="49"/>
     </row>
     <row r="9" ht="16.5" spans="1:7">
-      <c r="A9" s="49"/>
-      <c r="B9" s="49"/>
-      <c r="C9" s="49"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="50"/>
+      <c r="A9" s="48"/>
+      <c r="B9" s="48"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="49"/>
     </row>
     <row r="10" ht="16.5" spans="1:7">
-      <c r="A10" s="49"/>
-      <c r="B10" s="49"/>
-      <c r="C10" s="49"/>
-      <c r="D10" s="50"/>
-      <c r="E10" s="50"/>
-      <c r="F10" s="50"/>
-      <c r="G10" s="50"/>
+      <c r="A10" s="48"/>
+      <c r="B10" s="48"/>
+      <c r="C10" s="48"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="49"/>
+      <c r="G10" s="49"/>
     </row>
     <row r="11" ht="16.5" spans="1:7">
-      <c r="A11" s="49"/>
-      <c r="B11" s="49"/>
-      <c r="C11" s="49"/>
-      <c r="D11" s="50"/>
-      <c r="E11" s="50"/>
-      <c r="F11" s="50"/>
-      <c r="G11" s="50"/>
+      <c r="A11" s="48"/>
+      <c r="B11" s="48"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="49"/>
     </row>
     <row r="12" ht="16.5" spans="1:7">
-      <c r="A12" s="49"/>
-      <c r="B12" s="49"/>
-      <c r="C12" s="49"/>
-      <c r="D12" s="50"/>
-      <c r="E12" s="50"/>
-      <c r="F12" s="50"/>
-      <c r="G12" s="50"/>
+      <c r="A12" s="48"/>
+      <c r="B12" s="48"/>
+      <c r="C12" s="48"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="49"/>
     </row>
     <row r="13" ht="16.5" spans="1:7">
-      <c r="A13" s="49"/>
-      <c r="B13" s="49"/>
-      <c r="C13" s="49"/>
-      <c r="D13" s="50"/>
-      <c r="E13" s="50"/>
-      <c r="F13" s="50"/>
-      <c r="G13" s="50"/>
+      <c r="A13" s="48"/>
+      <c r="B13" s="48"/>
+      <c r="C13" s="48"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="49"/>
     </row>
     <row r="14" ht="16.5" spans="1:7">
-      <c r="A14" s="49"/>
-      <c r="B14" s="49"/>
-      <c r="C14" s="49"/>
-      <c r="D14" s="50"/>
-      <c r="E14" s="50"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="50"/>
+      <c r="A14" s="48"/>
+      <c r="B14" s="48"/>
+      <c r="C14" s="48"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="49"/>
     </row>
     <row r="15" ht="16.5" spans="1:7">
-      <c r="A15" s="49"/>
-      <c r="B15" s="49"/>
-      <c r="C15" s="49"/>
-      <c r="D15" s="50"/>
-      <c r="E15" s="50"/>
-      <c r="F15" s="50"/>
-      <c r="G15" s="50"/>
+      <c r="A15" s="48"/>
+      <c r="B15" s="48"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="49"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="49"/>
+      <c r="G15" s="49"/>
     </row>
     <row r="17" spans="2:2">
-      <c r="B17" s="51" t="s">
+      <c r="B17" s="50" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1312,7 +1315,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1528,8 +1531,8 @@
   <sheetPr/>
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1734,14 +1737,14 @@
     </row>
     <row r="15" ht="18" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="2"/>
       <c r="F15" s="1" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="G15" s="1"/>
     </row>
@@ -1780,7 +1783,7 @@
         <v>1</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" ht="33" spans="1:7">
@@ -1797,16 +1800,16 @@
         <v>2</v>
       </c>
       <c r="G18" s="12" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" ht="16.5" spans="1:7">
       <c r="A19" s="11"/>
       <c r="B19" s="15" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D19" s="12"/>
       <c r="E19" s="9"/>
@@ -1814,7 +1817,7 @@
         <v>3</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" ht="17.25" spans="1:7">
@@ -1827,7 +1830,7 @@
         <v>4</v>
       </c>
       <c r="G20" s="12" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" ht="17.25" spans="1:7">
@@ -1846,10 +1849,10 @@
         <v>29</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D22" s="12"/>
       <c r="E22" s="9"/>
@@ -1861,10 +1864,10 @@
     <row r="23" ht="16.5" spans="1:7">
       <c r="A23" s="11"/>
       <c r="B23" s="15" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C23" s="23" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D23" s="12"/>
       <c r="E23" s="9"/>
@@ -1876,10 +1879,10 @@
     <row r="24" ht="16.5" spans="1:7">
       <c r="A24" s="11"/>
       <c r="B24" s="15" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C24" s="23" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D24" s="12"/>
       <c r="E24" s="9"/>
@@ -1891,10 +1894,10 @@
     <row r="25" ht="16.5" spans="1:7">
       <c r="A25" s="11"/>
       <c r="B25" s="15" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C25" s="23" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D25" s="12"/>
       <c r="E25" s="9"/>
@@ -1927,14 +1930,14 @@
     </row>
     <row r="29" ht="18" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="2"/>
       <c r="F29" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G29" s="1"/>
     </row>
@@ -1962,25 +1965,27 @@
         <v>19</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D31" s="7"/>
       <c r="E31" s="9"/>
       <c r="F31" s="10">
         <v>1</v>
       </c>
-      <c r="G31" s="7"/>
+      <c r="G31" s="7" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="32" ht="16.5" spans="1:7">
       <c r="A32" s="11"/>
       <c r="B32" s="12" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D32" s="12"/>
       <c r="E32" s="9"/>
@@ -1992,10 +1997,10 @@
     <row r="33" ht="16.5" spans="1:7">
       <c r="A33" s="11"/>
       <c r="B33" s="12" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D33" s="12"/>
       <c r="E33" s="9"/>
@@ -2006,8 +2011,12 @@
     </row>
     <row r="34" ht="17.25" spans="1:7">
       <c r="A34" s="16"/>
-      <c r="B34" s="12"/>
-      <c r="C34" s="18"/>
+      <c r="B34" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>59</v>
+      </c>
       <c r="D34" s="19"/>
       <c r="E34" s="9"/>
       <c r="F34" s="14">
@@ -2031,9 +2040,11 @@
         <v>29</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="C36" s="13"/>
+        <v>60</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>66</v>
+      </c>
       <c r="D36" s="12"/>
       <c r="E36" s="9"/>
       <c r="F36" s="14">
@@ -2044,7 +2055,7 @@
     <row r="37" ht="16.5" spans="1:7">
       <c r="A37" s="11"/>
       <c r="B37" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C37" s="23"/>
       <c r="D37" s="12"/>
@@ -2057,7 +2068,7 @@
     <row r="38" ht="16.5" spans="1:7">
       <c r="A38" s="11"/>
       <c r="B38" s="12" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C38" s="13"/>
       <c r="D38" s="12"/>
@@ -2144,14 +2155,14 @@
   <sheetData>
     <row r="1" ht="18" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="2"/>
       <c r="F1" s="1" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="G1" s="1"/>
     </row>

--- a/daily log/工作日志.杨炜 0318.xlsx
+++ b/daily log/工作日志.杨炜 0318.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74">
   <si>
     <t>下周计划</t>
   </si>
@@ -234,7 +234,13 @@
     <t>css绘图三角形</t>
   </si>
   <si>
+    <t>盒子内超出文字自动省略号</t>
+  </si>
+  <si>
     <t>实现左侧导航收缩功能</t>
+  </si>
+  <si>
+    <t>待进行</t>
   </si>
 </sst>
 </file>
@@ -1532,7 +1538,7 @@
   <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1992,12 +1998,14 @@
       <c r="F32" s="14">
         <v>2</v>
       </c>
-      <c r="G32" s="12"/>
+      <c r="G32" s="12" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="33" ht="16.5" spans="1:7">
       <c r="A33" s="11"/>
       <c r="B33" s="12" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C33" s="13" t="s">
         <v>59</v>
@@ -2007,7 +2015,9 @@
       <c r="F33" s="14">
         <v>3</v>
       </c>
-      <c r="G33" s="12"/>
+      <c r="G33" s="12" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="34" ht="17.25" spans="1:7">
       <c r="A34" s="16"/>
@@ -2057,7 +2067,9 @@
       <c r="B37" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C37" s="23"/>
+      <c r="C37" s="23" t="s">
+        <v>73</v>
+      </c>
       <c r="D37" s="12"/>
       <c r="E37" s="9"/>
       <c r="F37" s="14">
@@ -2067,9 +2079,7 @@
     </row>
     <row r="38" ht="16.5" spans="1:7">
       <c r="A38" s="11"/>
-      <c r="B38" s="12" t="s">
-        <v>61</v>
-      </c>
+      <c r="B38" s="12"/>
       <c r="C38" s="13"/>
       <c r="D38" s="12"/>
       <c r="E38" s="9"/>
